--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Esophageal spasm a.k.a Jackhammer Esophagus.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Esophageal spasm a.k.a Jackhammer Esophagus.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as sclerodactyly</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Skin changes are characteristic of CREST syndrome and less common in esophageal spasm.</t>
+          <t>This is a common symptom in Type 2 Achalasia due to esophageal motility disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Intermittent chest pain that is often severe</t>
+          <t>Intermittent chest pain</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Severe chest pain is more characteristic of esophageal spasm than of achalasia.</t>
+          <t>Chest pain is more characteristic of esophageal spasm due to intense contractions.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a hallmark of CREST syndrome and not typically associated with esophageal spasm.</t>
+          <t>Raynaud's is a hallmark of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Episodes of dysphagia that are not progressive</t>
+          <t>Dysphagia with acute episodes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Non-progressive dysphagia is more common in esophageal spasm compared to the progressive nature in achalasia.</t>
+          <t>Acute episodes of dysphagia are more typical of esophageal spasm than progressive dysphagia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia that is progressive and associated with weight loss</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Progressive dysphagia and weight loss are more indicative of achalasia in CREST syndrome than in esophageal spasm.</t>
+          <t>Sclerodactyly is specific to CREST syndrome, indicating systemic sclerosis involvement.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Symptoms triggered by stress or certain foods</t>
+          <t>Regurgitation without progressive worsening</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Esophageal spasm symptoms can be triggered by stress or specific food types, unlike achalasia.</t>
+          <t>Regurgitation in esophageal spasm is not typically progressive, unlike in achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux symptoms</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reflux symptoms can be more pronounced in achalasia due to esophageal obstruction in CREST syndrome.</t>
+          <t>Telangiectasia is a characteristic feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of episodic dysphagia</t>
+          <t>Heartburn</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Episodic dysphagia is more typical of esophageal spasm than the constant dysphagia seen in achalasia.</t>
+          <t>Heartburn is more commonly associated with esophageal spasm due to reflux.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is associated with CREST syndrome and not typically seen in esophageal spasm.</t>
+          <t>Calcinosis is part of the CREST syndrome acronym, supporting this diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No associated skin or systemic symptoms</t>
+          <t>Episodes triggered by stress</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of systemic symptoms suggests esophageal spasm rather than CREST syndrome.</t>
+          <t>Stress-induced episodes are more common in esophageal spasm.</t>
         </is>
       </c>
     </row>
@@ -618,105 +618,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scleroderma is a key component of CREST syndrome, which is often present in patients with Type 2 Achalasia.</t>
+          <t>Scleroderma is a key component of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of intermittent chest pain</t>
+          <t>History of GERD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Intermittent chest pain is a common symptom in patients with Esophageal spasm, often described as angina-like.</t>
+          <t>GERD (Gastroesophageal Reflux Disease) is more commonly associated with esophageal motility disorders like Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of Raynaud's phenomenon</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and can indicate underlying connective tissue disease.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of dysphagia without reflux</t>
+          <t>Use of proton pump inhibitors</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dysphagia in Esophageal spasm is typically not associated with reflux symptoms, unlike in CREST syndrome.</t>
+          <t>Proton pump inhibitors are often used to manage symptoms of GERD, which is associated with Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a complication of CREST syndrome and is less common in patients with Esophageal spasm.</t>
+          <t>Calcinosis is a specific feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Use of nitrates for symptom relief</t>
+          <t>History of chest pain</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nitrates are often used to relieve chest pain in Esophageal spasm, indicating a different treatment approach.</t>
+          <t>Chest pain is a common symptom in patients with Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Use of proton pump inhibitors for GERD</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome often experience gastroesophageal reflux disease (GERD) due to esophageal motility issues.</t>
+          <t>Telangiectasia is a characteristic finding in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of anxiety or stress-related symptoms</t>
+          <t>Previous diagnosis of esophageal spasm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Esophageal spasm can be exacerbated by stress, which is less commonly reported in CREST syndrome.</t>
+          <t>A history of esophageal spasm is directly related to Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of skin thickening or changes</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Skin changes are a hallmark of scleroderma and thus CREST syndrome, distinguishing it from Esophageal spasm.</t>
+          <t>Sclerodactyly is a hallmark of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Previous esophageal dilation procedures</t>
+          <t>Use of calcium channel blockers</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Patients with Esophageal spasm may undergo dilation procedures, which are less common in CREST syndrome with Type 2 Achalasia.</t>
+          <t>Calcium channel blockers are sometimes used to treat esophageal spasms, including Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is associated with autoimmune conditions, suggesting a genetic predisposition.</t>
+          <t>Autoimmune diseases, including CREST syndrome, often have a genetic component and can run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of esophageal motility disorders</t>
+          <t>No significant family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A genetic predisposition to esophageal motility disorders is more relevant to esophageal spasm.</t>
+          <t>Jackhammer Esophagus is not typically associated with autoimmune diseases, unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>History of Raynaud's phenomenon in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature of CREST syndrome, indicating a higher likelihood of this diagnosis.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome and may indicate a familial predisposition.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GERD is more commonly associated with esophageal spasm than with CREST syndrome.</t>
+          <t>Esophageal motility disorders, like Jackhammer Esophagus, can have familial patterns.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain occupations may increase the risk of developing autoimmune conditions like CREST syndrome.</t>
+          <t>Scleroderma is closely related to CREST syndrome and a family history can suggest a genetic link.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lifestyle factors such as high caffeine intake</t>
+          <t>History of GERD in family</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>High caffeine consumption is linked to increased esophageal spasms.</t>
+          <t>Gastroesophageal reflux disease (GERD) is more commonly associated with esophageal motility disorders.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>Family history of connective tissue diseases</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome, which is not typically seen in esophageal spasm.</t>
+          <t>Connective tissue diseases are associated with CREST syndrome and may indicate a genetic predisposition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Family history of non-autoimmune gastrointestinal disorders</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Smoking is a known risk factor for esophageal motility disorders, including esophageal spasm.</t>
+          <t>Non-autoimmune gastrointestinal disorders are more relevant to Jackhammer Esophagus than CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Participation in activities that increase risk of connective tissue disorders</t>
+          <t>Family history of pulmonary hypertension</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Engagement in such activities may correlate with a higher incidence of CREST syndrome.</t>
+          <t>Pulmonary hypertension can be a complication of CREST syndrome and may have a familial link.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Participation in high-stress occupations</t>
+          <t>No family history of connective tissue diseases</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>High-stress environments can exacerbate esophageal spasm symptoms.</t>
+          <t>The absence of connective tissue diseases in family history is more indicative of Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes such as sclerodactyly</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome, indicating connective tissue involvement.</t>
+          <t>Thickening and tightening of the skin on the fingers is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chest pain that is often severe and episodic</t>
+          <t>Normal skin examination</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Severe chest pain is more characteristic of esophageal spasm than of achalasia.</t>
+          <t>Absence of skin changes like sclerodactyly or telangiectasia suggests against CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is less prevalent in esophageal spasm.</t>
+          <t>Visible small blood vessels on the skin are common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on imaging</t>
+          <t>Hypertensive peristalsis on esophageal manometry</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Esophageal spasm typically shows normal motility patterns, unlike the impaired motility seen in achalasia.</t>
+          <t>Strong contractions in the esophagus are characteristic of Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia with a dilated esophagus on imaging</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Type 2 Achalasia leads to esophageal dilation, which is more characteristic of CREST syndrome than esophageal spasm.</t>
+          <t>Calcium deposits under the skin are indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Intermittent dysphagia without esophageal dilation</t>
+          <t>Absence of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dysphagia in esophageal spasm is often intermittent and does not lead to esophageal dilation.</t>
+          <t>Lack of Raynaud's phenomenon is more consistent with Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome and is not typically associated with esophageal spasm.</t>
+          <t>Episodes of reduced blood flow to fingers and toes are typical in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of connective tissue disease</t>
+          <t>Normal nailfold capillaries</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of connective tissue disease signs supports a diagnosis of esophageal spasm over CREST syndrome.</t>
+          <t>Normal capillary patterns at the nailfold are less likely in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis is a specific finding in CREST syndrome, indicating calcium deposits in the skin.</t>
+          <t>Ulcers on the fingertips are more common in CREST syndrome due to vascular involvement.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Response to nitrates or calcium channel blockers</t>
+          <t>Absence of digital ulcers</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Esophageal spasm often responds to these medications, which is not the case in achalasia.</t>
+          <t>Lack of digital ulcers is more typical of Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with decreased peristalsis</t>
+          <t>Positive anti-centromere antibodies</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Anti-centromere antibodies are commonly associated with CREST syndrome and are not typically found in Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing intermittent periods of high amplitude contractions</t>
+          <t>High-resolution manometry showing hypercontractile peristalsis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>High amplitude contractions are characteristic of Jackhammer Esophagus.</t>
+          <t>Jackhammer Esophagus is characterized by hypercontractile peristalsis, which is not seen in Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter (LES) pressure</t>
+          <t>Esophageal manometry showing incomplete lower esophageal sphincter (LES) relaxation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elevated LES pressure is a hallmark of achalasia, supporting the diagnosis of CREST syndrome.</t>
+          <t>Type 2 Achalasia is characterized by incomplete LES relaxation, which is not a feature of Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Barium swallow study showing normal esophageal peristalsis with intermittent spasms</t>
+          <t>Normal LES relaxation on manometry</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal peristalsis with spasms is more indicative of esophageal spasm than achalasia.</t>
+          <t>Normal LES relaxation is typical in Jackhammer Esophagus, unlike in Type 2 Achalasia where LES relaxation is impaired.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of esophageal dilation on imaging studies</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esophageal dilation is more common in achalasia than in esophageal spasm.</t>
+          <t>The bird-beak appearance on barium swallow is indicative of achalasia, particularly in CREST syndrome, and not seen in Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of significant esophageal dilation on imaging</t>
+          <t>Barium swallow showing corkscrew esophagus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of dilation suggests normal motility, favoring esophageal spasm.</t>
+          <t>Corkscrew esophagus appearance is associated with esophageal spasm, including Jackhammer Esophagus, and not with achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Imaging showing esophageal stasis</t>
+          <t>High-resolution manometry showing panesophageal pressurization</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stasis is indicative of impaired motility seen in achalasia, supporting CREST syndrome.</t>
+          <t>Panesophageal pressurization is a hallmark of Type 2 Achalasia, distinguishing it from Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Endoscopic findings showing normal mucosa without obstruction</t>
+          <t>Esophageal manometry showing increased distal contractile integral (DCI)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal findings without obstruction are more consistent with esophageal spasm.</t>
+          <t>Increased DCI is a key feature of Jackhammer Esophagus, distinguishing it from Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Endoscopic findings of esophageal obstruction</t>
+          <t>Esophageal dilation on imaging</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Obstruction is more consistent with achalasia than with esophageal spasm.</t>
+          <t>Esophageal dilation is more common in achalasia due to chronic obstruction, unlike in Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Response to nitroglycerin during manometry</t>
+          <t>Normal esophageal diameter on imaging</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Improvement in symptoms with nitroglycerin is more common in esophageal spasm.</t>
+          <t>Normal esophageal diameter is more consistent with Jackhammer Esophagus, as opposed to the dilation seen in achalasia.</t>
         </is>
       </c>
     </row>
